--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Resultate</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Frage 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
@@ -167,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,6 +252,23 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">SUM(B3:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">SUM(C3:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">SUM(D3:D14)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
